--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F791FF3-A896-4E42-8EA5-C7B064CE221C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EA13DC-5712-4537-9BFD-853F04CA0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>agent</t>
   </si>
@@ -163,13 +163,16 @@
   </si>
   <si>
     <t>person222email@mail.com</t>
+  </si>
+  <si>
+    <t>050-9999998</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,14 +184,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,11 +232,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,11 +256,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,7 +539,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,8 +595,8 @@
       <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4">
-        <v>509999998</v>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>35</v>
@@ -633,8 +624,8 @@
       <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4">
-        <v>509999999</v>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>35</v>
@@ -662,8 +653,8 @@
       <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4">
-        <v>509999999</v>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>35</v>
@@ -691,8 +682,8 @@
       <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4">
-        <v>509999999</v>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>35</v>
@@ -720,8 +711,8 @@
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4">
-        <v>509999999</v>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>35</v>
@@ -749,8 +740,8 @@
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4">
-        <v>509999999</v>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -778,8 +769,8 @@
       <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4">
-        <v>509999999</v>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -807,8 +798,8 @@
       <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4">
-        <v>509999999</v>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>35</v>
@@ -833,11 +824,11 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
-        <v>509999999</v>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>35</v>
@@ -865,8 +856,8 @@
       <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4">
-        <v>509999999</v>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>35</v>
@@ -891,11 +882,11 @@
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="4">
-        <v>509999999</v>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>35</v>
@@ -977,11 +968,7 @@
       <c r="I18" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{9A7820D1-D230-4980-AAF1-C507DFE935CD}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{2943541D-0D88-4D4B-BC40-7AE68BC39151}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EA13DC-5712-4537-9BFD-853F04CA0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2AF632-A1CA-492A-A72A-6A5B9D75A04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>agent</t>
   </si>
@@ -141,9 +141,6 @@
     <t>swissport</t>
   </si>
   <si>
-    <t>flour</t>
-  </si>
-  <si>
     <t>room</t>
   </si>
   <si>
@@ -162,10 +159,10 @@
     <t>person 1</t>
   </si>
   <si>
-    <t>person222email@mail.com</t>
-  </si>
-  <si>
     <t>050-9999998</t>
+  </si>
+  <si>
+    <t>floor</t>
   </si>
 </sst>
 </file>
@@ -539,7 +536,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,10 +552,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -576,10 +573,10 @@
         <v>34</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -587,16 +584,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>35</v>
@@ -625,7 +622,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>35</v>
@@ -645,7 +642,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -654,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>35</v>
@@ -674,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -683,7 +680,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>35</v>
@@ -703,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -712,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>35</v>
@@ -732,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -741,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -761,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -770,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -799,7 +796,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>35</v>
@@ -819,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -828,7 +825,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>35</v>
@@ -848,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -857,7 +854,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>35</v>
@@ -873,33 +870,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>784</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\server\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2AF632-A1CA-492A-A72A-6A5B9D75A04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0561A8A-8126-4DB8-B7D1-F314C2862985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0561A8A-8126-4DB8-B7D1-F314C2862985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DCD973-0212-4547-A564-E94EC051BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26910" yWindow="3645" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>agent</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>transport</t>
-  </si>
-  <si>
-    <t>person 1</t>
   </si>
   <si>
     <t>050-9999998</t>
@@ -536,7 +533,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +570,7 @@
         <v>34</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>38</v>
@@ -587,13 +584,13 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>35</v>
@@ -622,7 +619,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>35</v>
@@ -651,7 +648,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>35</v>
@@ -680,7 +677,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>35</v>
@@ -709,7 +706,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>35</v>
@@ -738,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -767,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -796,7 +793,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>35</v>
@@ -825,7 +822,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>35</v>
@@ -854,7 +851,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>35</v>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DCD973-0212-4547-A564-E94EC051BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD75D64-4BF0-4953-98AA-92F1442DC713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26910" yWindow="3645" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>agent</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>floor</t>
+  </si>
+  <si>
+    <t>person 1</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +587,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD75D64-4BF0-4953-98AA-92F1442DC713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB7D616-41C3-47E7-A7E1-232B2B27D57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26910" yWindow="3645" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>agent</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>floor</t>
-  </si>
-  <si>
-    <t>person 1</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +584,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB7D616-41C3-47E7-A7E1-232B2B27D57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E08BFC8-4FE6-4879-B182-577DE0D5A710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26910" yWindow="3645" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>agent</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>floor</t>
+  </si>
+  <si>
+    <t>person 1</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E08BFC8-4FE6-4879-B182-577DE0D5A710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F93DF7B-C159-4443-BA6F-1BBBA2A676E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26910" yWindow="3645" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F93DF7B-C159-4443-BA6F-1BBBA2A676E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35428CAE-F14F-48A7-8EA3-7A60295501E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
     <t>floor</t>
   </si>
   <si>
-    <t>person 1</t>
+    <t>person 22</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35428CAE-F14F-48A7-8EA3-7A60295501E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD279D68-0FD8-45AD-9972-2C6F7719AD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
     <t>floor</t>
   </si>
   <si>
-    <t>person 22</t>
+    <t>person 1</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD279D68-0FD8-45AD-9972-2C6F7719AD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBD10EF-DB6A-49F2-84E2-9DD27067E280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBD10EF-DB6A-49F2-84E2-9DD27067E280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5114CA-2A11-4F1B-988B-CC9B4C536DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>agent</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>floor</t>
-  </si>
-  <si>
-    <t>person 1</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +584,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5114CA-2A11-4F1B-988B-CC9B4C536DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAEFD5B-E29C-402D-BB5E-2D330B812E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>agent</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>floor</t>
+  </si>
+  <si>
+    <t>person 1</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +587,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAEFD5B-E29C-402D-BB5E-2D330B812E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FA62DD-C95B-467D-8450-3283785ED763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A11" sqref="A7:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FA62DD-C95B-467D-8450-3283785ED763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F8405B-9941-4A41-B40A-F7E1D2330995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>test record 10</t>
   </si>
   <si>
-    <t>person 2</t>
-  </si>
-  <si>
     <t>person 3</t>
   </si>
   <si>
@@ -162,7 +159,10 @@
     <t>floor</t>
   </si>
   <si>
-    <t>person 1</t>
+    <t>person 100</t>
+  </si>
+  <si>
+    <t>person 220</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A7:I11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,10 +552,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -570,13 +570,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -584,22 +584,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="7">
         <v>2</v>
@@ -616,19 +616,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="7">
         <v>2</v>
@@ -642,22 +642,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -671,22 +671,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -700,22 +700,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -729,22 +729,22 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -758,22 +758,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -790,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -816,22 +816,22 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F8405B-9941-4A41-B40A-F7E1D2330995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F364E2-B5D1-4B65-B73D-C9C001D27257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26220" yWindow="2115" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,10 +159,10 @@
     <t>floor</t>
   </si>
   <si>
-    <t>person 100</t>
-  </si>
-  <si>
     <t>person 220</t>
+  </si>
+  <si>
+    <t>person 1</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>23</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>24</v>

--- a/src/contacts.xlsx
+++ b/src/contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\data-cleansing-server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F364E2-B5D1-4B65-B73D-C9C001D27257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB79EB02-4A68-4FE1-A9FA-646D5E9CAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="2115" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I11" sqref="A5:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
